--- a/test_data/Glop_Pot/CATALOG_Glop_Pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_Glop_Pot.xlsx
@@ -5,11 +5,6 @@
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Files" sheetId="2" r:id="rId2"/>
-    <sheet name="People" sheetId="3" r:id="rId3"/>
-    <sheet name="Places" sheetId="4" r:id="rId4"/>
-    <sheet name="Formats" sheetId="5" r:id="rId5"/>
-    <sheet name="Licenses" sheetId="6" r:id="rId6"/>
-    <sheet name="Organizations" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -382,7 +377,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Collection"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,88 +392,20 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>https://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</v>
+        <v>Name</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Glop Pot data</v>
+        <v>Description</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Sketchsheets and data from the Glop Pot cave survey</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>RELATION:ContentLocation</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Glop Pot</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mike Lake</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Phil Maynard</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>RELATION:Publisher</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>DatePublished</v>
-      </c>
-      <c r="B11">
-        <v>2017</v>
+        <v>RELATION:ContactPoint</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
 </worksheet>
 </file>
@@ -486,7 +413,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Files"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,339 +434,29 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>cp7glop.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex data file for Glop Pot</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CC-BY</v>
+        <v>bag-info.txt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>cp7glop.ai</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Illustrator file for Glop Pot</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D3" t="str">
-        <v>CC-BY</v>
+        <v>bagit.txt</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>manifest-md5.txt</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>profile-datacrate-v0.2.json</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>tagmanifest-md5.txt</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="People"/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>GivenName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>FamilyName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Email</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Keir</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Vaughan-Taylor</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F2" t="str">
-        <v>keir@example.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>http://orcid.org/0000-0002-2038-7922</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Andreas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Klocker</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F3" t="str">
-        <v>andreas@example.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>http://orcid.org/0000-0003-4953-9114</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Phil</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Maynard</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F4" t="str">
-        <v>phil@example.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>http://orcid.org/0000-0003-4953-0830</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mike Lake</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mike</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Lake</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F5" t="str">
-        <v>mike.lake@uts.edu.au</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Places"/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="E1" t="str">
-        <v>geo&gt;TYPE:GeoCoordinates&gt;</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Glop Pot</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Located in the Snowy Mountains Region of NSW, nearest town Tumut 2720</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Place</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Cooleman Plains</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Latitude: -35.623592, Longitude: 148.683836</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Formats"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>extension</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>mime</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="E1" t="str">
-        <v>URL</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex file</v>
-      </c>
-      <c r="C2" t="str">
-        <v>text/plain</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Survex is a multi-platform open-source cave surveying package.</v>
-      </c>
-      <c r="E2" t="str">
-        <v>https://survex.com/docs/manual/datafile.htm</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Format</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Licenses"/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>CC-BY</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">You are free to:_x000d__x000d__x000d_
-Share — copy and redistribute the material in any medium or format_x000d__x000d__x000d_
-Adapt — remix, transform, and build upon the material_x000d__x000d__x000d_
-for any purpose, even commercially._x000d__x000d__x000d_
- This license is acceptable for Free Cultural Works._x000d__x000d__x000d_
-The licensor cannot revoke these freedoms as long as you follow the license terms._x000d__x000d__x000d_
-Under the following terms:_x000d__x000d__x000d_
-Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000d__x000d__x000d_
-_x000d__x000d__x000d_
-No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000d__x000d__x000d_
-Notices:_x000d__x000d__x000d_
-You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000d__x000d__x000d_
-No warranties are given. The license may not give you all of the permissions necessary for your intended use. For example, other rights such as publicity, privacy, or moral rights may limit how you use the material.</v>
-      </c>
-      <c r="C2" t="str">
-        <v>https://creativecommons.org/licenses/by/3.0/au/</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CreativeWork</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Organizations"/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="D1" t="str">
-        <v>RELATION:ContactPoint</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://suss.caves.org.au/</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Organization</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Mike Lake</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-</worksheet>
 </file>
--- a/test_data/Glop_Pot/CATALOG_Glop_Pot.xlsx
+++ b/test_data/Glop_Pot/CATALOG_Glop_Pot.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/124411/Dropbox/calcyte.js/test_data/Glop_Pot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D907BAE-4F20-834A-B176-40F364CA390D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Files" sheetId="2" r:id="rId2"/>
@@ -11,18 +21,248 @@
     <sheet name="Licenses" sheetId="6" r:id="rId6"/>
     <sheet name="Organizations" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</t>
+  </si>
+  <si>
+    <t>Glop Pot data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sketchsheets and data from the Glop Pot cave survey</t>
+  </si>
+  <si>
+    <t>RELATION:Contact</t>
+  </si>
+  <si>
+    <t>Mike Lake</t>
+  </si>
+  <si>
+    <t>RELATION:ContentLocation</t>
+  </si>
+  <si>
+    <t>Glop Pot</t>
+  </si>
+  <si>
+    <t>RELATION:Creator</t>
+  </si>
+  <si>
+    <t>Keir Vaughan-Taylor</t>
+  </si>
+  <si>
+    <t>Andreas Klocker</t>
+  </si>
+  <si>
+    <t>Phil Maynard</t>
+  </si>
+  <si>
+    <t>RELATION:Publisher</t>
+  </si>
+  <si>
+    <t>Sydney University Speleological Society</t>
+  </si>
+  <si>
+    <t>DatePublished</t>
+  </si>
+  <si>
+    <t>FILE:Filename</t>
+  </si>
+  <si>
+    <t>RELATION:Creator*</t>
+  </si>
+  <si>
+    <t>RELATION:License</t>
+  </si>
+  <si>
+    <t>cp7glop.svx</t>
+  </si>
+  <si>
+    <t>Survex data file for Glop Pot</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>cp7glop.ai</t>
+  </si>
+  <si>
+    <t>Illustrator file for Glop Pot</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t>TYPE:</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Keir</t>
+  </si>
+  <si>
+    <t>Vaughan-Taylor</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>keir@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-2038-7922</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Klocker</t>
+  </si>
+  <si>
+    <t>andreas@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0003-4953-9114</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Maynard</t>
+  </si>
+  <si>
+    <t>phil@example.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0003-4953-0830</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>mike.lake@uts.edu.au</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>geo&gt;TYPE:GeoCoordinates&gt;</t>
+  </si>
+  <si>
+    <t>Located in the Snowy Mountains Region of NSW, nearest town Tumut 2720</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Cooleman Plains</t>
+  </si>
+  <si>
+    <t>Latitude: -35.623592, Longitude: 148.683836</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>.svx</t>
+  </si>
+  <si>
+    <t>Survex file</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>Survex is a multi-platform open-source cave surveying package.</t>
+  </si>
+  <si>
+    <t>https://survex.com/docs/manual/datafile.htm</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>You are free to:_x000D__x000D_
+Share — copy and redistribute the material in any medium or format_x000D__x000D_
+Adapt — remix, transform, and build upon the material_x000D__x000D_
+for any purpose, even commercially._x000D__x000D_
+ This license is acceptable for Free Cultural Works._x000D__x000D_
+The licensor cannot revoke these freedoms as long as you follow the license terms._x000D__x000D_
+Under the following terms:_x000D__x000D_
+Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000D__x000D_
+_x000D__x000D_
+No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000D__x000D_
+Notices:_x000D__x000D_
+You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000D__x000D_
+No warranties are given. The license may not give you all of the permissions necessary for your intended use. For example, other rights such as publicity, privacy, or moral rights may limit how you use the material.</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/3.0/au/</t>
+  </si>
+  <si>
+    <t>CreativeWork</t>
+  </si>
+  <si>
+    <t>https://suss.caves.org.au/</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>contactPoint&gt;TYPE:ContactPoint&gt;</t>
+  </si>
+  <si>
+    <t>ID: mike.lake@uts.edu.au, contactType: customer service, email: mike.lake@uts.edu.au</t>
+  </si>
+  <si>
+    <t>RELATION:ContactPoint</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -45,17 +285,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,474 +631,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Collection"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Value</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>https://dx.doi.org/10.1016/this_is_an_example_not_a_real_DOI</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Glop Pot data</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Sketchsheets and data from the Glop Pot cave survey</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>RELATION:ContentLocation</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Glop Pot</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mike Lake</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>RELATION:Creator</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Phil Maynard</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>RELATION:Publisher</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>DatePublished</v>
-      </c>
-      <c r="B11">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>2017</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>RELATION:contactPoint</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Mike Lake</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{951B1036-7E95-1A4B-88B5-47EF7FB71F6C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Files"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>FILE:Filename</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>RELATION:Creator*</v>
-      </c>
-      <c r="D1" t="str">
-        <v>RELATION:License</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>cp7glop.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex data file for Glop Pot</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CC-BY</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>cp7glop.ai</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Illustrator file for Glop Pot</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="D3" t="str">
-        <v>CC-BY</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="People"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>GivenName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>FamilyName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Email</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Keir Vaughan-Taylor</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Keir</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Vaughan-Taylor</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F2" t="str">
-        <v>keir@example.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>http://orcid.org/0000-0002-2038-7922</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Andreas Klocker</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Andreas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Klocker</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F3" t="str">
-        <v>andreas@example.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>http://orcid.org/0000-0003-4953-9114</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Phil Maynard</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Phil</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Maynard</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F4" t="str">
-        <v>phil@example.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>http://orcid.org/0000-0003-4953-0830</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mike Lake</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Mike</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Lake</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="F5" t="str">
-        <v>mike.lake@uts.edu.au</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Places"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="E1" t="str">
-        <v>geo&gt;TYPE:GeoCoordinates&gt;</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Glop Pot</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Located in the Snowy Mountains Region of NSW, nearest town Tumut 2720</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Place</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Cooleman Plains</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Latitude: -35.623592, Longitude: 148.683836</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Formats"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>extension</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>mime</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="E1" t="str">
-        <v>URL</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>.svx</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Survex file</v>
-      </c>
-      <c r="C2" t="str">
-        <v>text/plain</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Survex is a multi-platform open-source cave surveying package.</v>
-      </c>
-      <c r="E2" t="str">
-        <v>https://survex.com/docs/manual/datafile.htm</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Format</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Licenses"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TYPE:</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>CC-BY</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">You are free to:_x000d__x000d__x000d_
-Share — copy and redistribute the material in any medium or format_x000d__x000d__x000d_
-Adapt — remix, transform, and build upon the material_x000d__x000d__x000d_
-for any purpose, even commercially._x000d__x000d__x000d_
- This license is acceptable for Free Cultural Works._x000d__x000d__x000d_
-The licensor cannot revoke these freedoms as long as you follow the license terms._x000d__x000d__x000d_
-Under the following terms:_x000d__x000d__x000d_
-Attribution — You must give appropriate credit, provide a link to the license, and indicate if changes were made. You may do so in any reasonable manner, but not in any way that suggests the licensor endorses you or your use._x000d__x000d__x000d_
-_x000d__x000d__x000d_
-No additional restrictions — You may not apply legal terms or technological measures that legally restrict others from doing anything the license permits._x000d__x000d__x000d_
-Notices:_x000d__x000d__x000d_
-You do not have to comply with the license for elements of the material in the public domain or where your use is permitted by an applicable exception or limitation._x000d__x000d__x000d_
-No warranties are given. The license may not give you all of the permissions necessary for your intended use. For example, other rights such as publicity, privacy, or moral rights may limit how you use the material.</v>
-      </c>
-      <c r="C2" t="str">
-        <v>https://creativecommons.org/licenses/by/3.0/au/</v>
-      </c>
-      <c r="D2" t="str">
-        <v>CreativeWork</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Organizations"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TYPE:</v>
-      </c>
-      <c r="D1" t="str">
-        <v>RELATION:ContactPoint</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://suss.caves.org.au/</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Sydney University Speleological Society</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Organization</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Mike Lake</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
 </worksheet>
 </file>